--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9539654998525533</v>
+        <v>0.9999999936462307</v>
       </c>
       <c r="E2">
-        <v>0.9539654998525533</v>
+        <v>0.9999999936462307</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>4.838274550854E-05</v>
+        <v>0.0001584605617075297</v>
       </c>
       <c r="E3">
-        <v>4.838274550854E-05</v>
+        <v>0.0001584605617075297</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.9999999999999982</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.9999999999999982</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9999999996526672</v>
+        <v>0.999975568849983</v>
       </c>
       <c r="E5">
-        <v>0.9999999996526672</v>
+        <v>0.999975568849983</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.999999999817867</v>
+        <v>0.9999999999999301</v>
       </c>
       <c r="E6">
-        <v>0.999999999817867</v>
+        <v>0.9999999999999301</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.8615464320356774</v>
+        <v>0.9993481691473288</v>
       </c>
       <c r="E7">
-        <v>0.1384535679643226</v>
+        <v>0.0006518308526711758</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9873022539073941</v>
+        <v>0.9016350470064394</v>
       </c>
       <c r="E9">
-        <v>0.01269774609260588</v>
+        <v>0.09836495299356063</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.317366528061388E-05</v>
+        <v>1.004439855873645E-06</v>
       </c>
       <c r="E11">
-        <v>0.9999768263347194</v>
+        <v>0.9999989955601442</v>
       </c>
       <c r="F11">
-        <v>10.16238975524902</v>
+        <v>10.76978397369385</v>
       </c>
       <c r="G11">
         <v>0.5</v>
